--- a/graph_uploads.xlsx
+++ b/graph_uploads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a496ca178903e46c/Documents/Projects/neo4j_connect_upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{CD41FAF1-3E60-413F-9492-ADA073F114CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12B8D45-251D-44E3-9701-BB8C0C76FD43}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{CD41FAF1-3E60-413F-9492-ADA073F114CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D48E190B-2CEA-40C3-A0C2-BD606CA268CA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6780" yWindow="17390" windowWidth="25730" windowHeight="10230" xr2:uid="{E0D6F3DA-0E16-43B4-BD94-A44964556450}"/>
+    <workbookView xWindow="19090" yWindow="14290" windowWidth="19420" windowHeight="10300" xr2:uid="{E0D6F3DA-0E16-43B4-BD94-A44964556450}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>data_source</t>
   </si>
@@ -47,9 +47,6 @@
     <t>database</t>
   </si>
   <si>
-    <t>AmmoSAN Slide Deck - 250515 Transcom.pdf"</t>
-  </si>
-  <si>
     <t>accessible_via</t>
   </si>
   <si>
@@ -65,10 +62,16 @@
     <t>diu_v2</t>
   </si>
   <si>
-    <t>queries</t>
-  </si>
-  <si>
-    <t>starter_pack</t>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>APFIT FY26 Quad Chart_Potable Water-from-Air at the Point of Need_20250919</t>
+  </si>
+  <si>
+    <t>AmmoSAN Slide Deck - 250515 Transcom.pdf</t>
   </si>
 </sst>
 </file>
@@ -121,6 +124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483718F6-DC0B-4CA7-AC62-6A35EA34CF20}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,16 +469,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -479,19 +486,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>2.4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>93</v>
+      </c>
+      <c r="G2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2.4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/graph_uploads.xlsx
+++ b/graph_uploads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a496ca178903e46c/Documents/Projects/neo4j_connect_upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{CD41FAF1-3E60-413F-9492-ADA073F114CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D48E190B-2CEA-40C3-A0C2-BD606CA268CA}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{CD41FAF1-3E60-413F-9492-ADA073F114CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F15DB8-71D1-477C-9EF6-3DB10FF85A57}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="14290" windowWidth="19420" windowHeight="10300" xr2:uid="{E0D6F3DA-0E16-43B4-BD94-A44964556450}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>data_source</t>
   </si>
@@ -72,16 +72,31 @@
   </si>
   <si>
     <t>AmmoSAN Slide Deck - 250515 Transcom.pdf</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>CC_RPP</t>
+  </si>
+  <si>
+    <t>Sea Spyder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,10 +139,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483718F6-DC0B-4CA7-AC62-6A35EA34CF20}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2">
         <v>80</v>
@@ -530,7 +541,67 @@
         <v>42</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2.4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F10)</f>
+        <v>197</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G2:G10)</f>
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/graph_uploads.xlsx
+++ b/graph_uploads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a496ca178903e46c/Documents/Projects/neo4j_connect_upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{CD41FAF1-3E60-413F-9492-ADA073F114CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F15DB8-71D1-477C-9EF6-3DB10FF85A57}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{CD41FAF1-3E60-413F-9492-ADA073F114CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7543A1-5870-4EBE-8B45-E0D2C8825E10}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="14290" windowWidth="19420" windowHeight="10300" xr2:uid="{E0D6F3DA-0E16-43B4-BD94-A44964556450}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>data_source</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Sea Spyder</t>
+  </si>
+  <si>
+    <t>IGOV Harpy</t>
   </si>
 </sst>
 </file>
@@ -139,6 +142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,7 +468,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,17 +594,28 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="F11">
         <f>SUM(F2:F10)</f>
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G11">
         <f>SUM(G2:G10)</f>
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/graph_uploads.xlsx
+++ b/graph_uploads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a496ca178903e46c/Documents/Projects/neo4j_connect_upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{CD41FAF1-3E60-413F-9492-ADA073F114CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA7543A1-5870-4EBE-8B45-E0D2C8825E10}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{CD41FAF1-3E60-413F-9492-ADA073F114CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72EE36F8-349E-4292-978D-3E6DDEA84099}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="14290" windowWidth="19420" windowHeight="10300" xr2:uid="{E0D6F3DA-0E16-43B4-BD94-A44964556450}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>data_source</t>
   </si>
@@ -84,6 +84,51 @@
   </si>
   <si>
     <t>IGOV Harpy</t>
+  </si>
+  <si>
+    <t>EFDL category</t>
+  </si>
+  <si>
+    <t>Air Autonomy &amp; Launched Effects</t>
+  </si>
+  <si>
+    <t>C-UAS AND PERSISTENT EARLY WARNING SENSORS</t>
+  </si>
+  <si>
+    <t>Ground Autonomy and launched effects</t>
+  </si>
+  <si>
+    <t>Integrated Mission Command Network</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Advanced Gunnery Training System (AGTS)</t>
+  </si>
+  <si>
+    <t>Aerial Warfare Uvision</t>
+  </si>
+  <si>
+    <t>Air Warfare Destroyer_DST</t>
+  </si>
+  <si>
+    <t>5G-Brochure</t>
+  </si>
+  <si>
+    <t>2024 Sky warden datasheet</t>
+  </si>
+  <si>
+    <t>Aaronia_AARTOS-DDS-Integrated Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent AMAAV </t>
+  </si>
+  <si>
+    <t>ATHENA successfully defends</t>
+  </si>
+  <si>
+    <t>Cyber Taclane</t>
   </si>
 </sst>
 </file>
@@ -465,156 +510,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483718F6-DC0B-4CA7-AC62-6A35EA34CF20}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2.4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>92</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2.4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>41</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2.4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>33</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2.4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>31</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="C6">
+        <v>2.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
         <v>33</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>2.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="F11">
-        <f>SUM(F2:F10)</f>
+      <c r="G16">
+        <f>SUM(G2:G15)</f>
         <v>230</v>
       </c>
-      <c r="G11">
-        <f>SUM(G2:G10)</f>
+      <c r="H16">
+        <f>SUM(H2:H15)</f>
         <v>214</v>
       </c>
     </row>
